--- a/caso_de_uso/Descrição do caso de uso (Athena.dev).xlsx
+++ b/caso_de_uso/Descrição do caso de uso (Athena.dev).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88021DF8-E384-449F-80CE-67F3DD93FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alunos\Desktop\documenta-o_athenas.dev\caso_de_uso\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194B89D3-A285-4D03-867A-A28C2EAD9CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -15,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="91">
   <si>
     <r>
       <t>Casos de Uso</t>
@@ -395,12 +389,48 @@
   <si>
     <t>4 – Mandar a redefinição de senha no Email o usuário </t>
   </si>
+  <si>
+    <t>RF009 - feedback</t>
+  </si>
+  <si>
+    <t>1 – Usuário clica em feedback</t>
+  </si>
+  <si>
+    <t>2 – Solicitar titulo, mensagem e satisfação</t>
+  </si>
+  <si>
+    <t>RF010 - contatos</t>
+  </si>
+  <si>
+    <t>1 – Usuário clica em contatos</t>
+  </si>
+  <si>
+    <t>2 – Solicitar titulo, mensagem, nome e email</t>
+  </si>
+  <si>
+    <t>3 -  confirmar se todos os campos foram preenchidos corretamente</t>
+  </si>
+  <si>
+    <t>4 – mandar para o email admin</t>
+  </si>
+  <si>
+    <t>4- confirmar se todos os campos foram preenchidos corretamente</t>
+  </si>
+  <si>
+    <t>5– mandar para o banco de dados</t>
+  </si>
+  <si>
+    <t> 3 - usuario preeche todos os requisitos</t>
+  </si>
+  <si>
+    <t>3- usuario preenche todos os requisitos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +491,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -476,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -685,11 +721,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -730,28 +807,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,17 +852,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,23 +1199,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="83.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" customWidth="1"/>
-    <col min="10" max="10" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.296875" customWidth="1"/>
+    <col min="2" max="2" width="83.59765625" customWidth="1"/>
+    <col min="3" max="3" width="52.3984375" customWidth="1"/>
+    <col min="8" max="8" width="7.09765625" customWidth="1"/>
+    <col min="9" max="9" width="38.8984375" customWidth="1"/>
+    <col min="10" max="10" width="46.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="14.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="14.4">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -1141,7 +1231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="14.4">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1240,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="14.4">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1249,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="14.4">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="14.4">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1176,7 +1266,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="14.4">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1184,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="14.4">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1283,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="14.4">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1292,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="14.4">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +1301,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="14.4">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1220,14 +1310,14 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:10" ht="14.4">
+      <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="23"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="14.4">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1236,16 +1326,16 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:10" ht="14.4">
+      <c r="A14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="14.4">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1264,24 +1354,24 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:5" ht="14.4">
+      <c r="A18" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="32"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.4">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="14.4">
       <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
@@ -1289,13 +1379,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="14.4">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="14.4">
       <c r="A22" s="12" t="s">
         <v>8</v>
       </c>
@@ -1303,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="14.4">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="14.4">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="14.4">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
@@ -1327,39 +1417,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30.75">
+    <row r="26" spans="1:5" ht="28.8">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="14.4">
       <c r="A27" s="3"/>
       <c r="B27" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:5" ht="14.4">
+      <c r="A28" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28" t="s">
+    <row r="29" spans="1:5" ht="14.4">
+      <c r="A29" s="32"/>
+      <c r="B29" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:5" ht="14.4">
+      <c r="A30" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.4">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="14.4">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="14.4">
       <c r="A33" s="6" t="s">
         <v>9</v>
       </c>
@@ -1383,7 +1473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" ht="14.4">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="14.4">
       <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
@@ -1399,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="14.4">
       <c r="A38" s="12" t="s">
         <v>4</v>
       </c>
@@ -1407,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="14.4">
       <c r="A39" s="12" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="14.4">
       <c r="A40" s="12" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="14.4">
       <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="14.4">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -1439,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="14.4">
       <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="14.4">
       <c r="A46" s="10" t="s">
         <v>36</v>
       </c>
@@ -1455,7 +1545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="14.4">
       <c r="A47" s="12" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1553,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="14.4">
       <c r="A48" s="12" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="14.4">
       <c r="A49" s="12" t="s">
         <v>6</v>
       </c>
@@ -1479,7 +1569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" ht="14.4">
       <c r="A50" s="12" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +1577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="14.4">
       <c r="A51" s="5" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="14.4">
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
@@ -1503,7 +1593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="14.4">
       <c r="A53" s="6" t="s">
         <v>9</v>
       </c>
@@ -1511,15 +1601,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="14.4">
       <c r="A56" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="14.4">
       <c r="A57" s="12" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="14.4">
       <c r="A58" s="12" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" ht="14.4">
       <c r="A59" s="12" t="s">
         <v>6</v>
       </c>
@@ -1543,7 +1633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="14.4">
       <c r="A60" s="12" t="s">
         <v>8</v>
       </c>
@@ -1551,15 +1641,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="29" t="s">
+    <row r="61" spans="1:2" ht="14.4">
+      <c r="A61" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" ht="14.4">
       <c r="A62" s="3" t="s">
         <v>47</v>
       </c>
@@ -1567,7 +1657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="14.4">
       <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +1665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" ht="14.4">
       <c r="A64" s="3" t="s">
         <v>49</v>
       </c>
@@ -1583,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="14.4">
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
@@ -1591,7 +1681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" ht="14.4">
       <c r="A66" s="3" t="s">
         <v>51</v>
       </c>
@@ -1599,7 +1689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="14.4">
       <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
@@ -1607,7 +1697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" ht="14.4">
       <c r="A68" s="3" t="s">
         <v>53</v>
       </c>
@@ -1615,7 +1705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="14.4">
       <c r="A69" s="3" t="s">
         <v>9</v>
       </c>
@@ -1623,7 +1713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" ht="14.4">
       <c r="A70" s="3" t="s">
         <v>55</v>
       </c>
@@ -1631,7 +1721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" ht="14.4">
       <c r="A71" s="6" t="s">
         <v>9</v>
       </c>
@@ -1639,7 +1729,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" ht="14.4">
       <c r="A74" s="10" t="s">
         <v>36</v>
       </c>
@@ -1647,7 +1737,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" ht="14.4">
       <c r="A75" s="12" t="s">
         <v>2</v>
       </c>
@@ -1655,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" ht="14.4">
       <c r="A76" s="12" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" ht="14.4">
       <c r="A77" s="12" t="s">
         <v>6</v>
       </c>
@@ -1671,7 +1761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" ht="14.4">
       <c r="A78" s="12" t="s">
         <v>8</v>
       </c>
@@ -1679,7 +1769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" ht="14.4">
       <c r="A79" s="5" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" ht="14.4">
       <c r="A80" s="3" t="s">
         <v>60</v>
       </c>
@@ -1695,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" ht="14.4">
       <c r="A81" s="3" t="s">
         <v>9</v>
       </c>
@@ -1703,7 +1793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" ht="14.4">
       <c r="A82" s="3" t="s">
         <v>62</v>
       </c>
@@ -1711,7 +1801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" ht="14.4">
       <c r="A83" s="3" t="s">
         <v>63</v>
       </c>
@@ -1719,7 +1809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" ht="14.4">
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
@@ -1727,27 +1817,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="20" t="s">
+    <row r="85" spans="1:2" ht="14.4">
+      <c r="A85" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="19"/>
+    <row r="86" spans="1:2" ht="14.4">
+      <c r="A86" s="17"/>
       <c r="B86" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="19"/>
+    <row r="87" spans="1:2" ht="14.4">
+      <c r="A87" s="17"/>
       <c r="B87" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" ht="14.4">
       <c r="A90" s="10" t="s">
         <v>36</v>
       </c>
@@ -1755,7 +1845,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" ht="14.4">
       <c r="A91" s="12" t="s">
         <v>2</v>
       </c>
@@ -1763,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" ht="14.4">
       <c r="A92" s="12" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +1861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" ht="14.4">
       <c r="A93" s="12" t="s">
         <v>6</v>
       </c>
@@ -1779,7 +1869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" ht="14.4">
       <c r="A94" s="12" t="s">
         <v>8</v>
       </c>
@@ -1787,7 +1877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" ht="14.4">
       <c r="A95" s="5" t="s">
         <v>10</v>
       </c>
@@ -1795,7 +1885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" ht="14.4">
       <c r="A96" s="3" t="s">
         <v>70</v>
       </c>
@@ -1803,63 +1893,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="31" t="s">
+    <row r="97" spans="1:2" ht="14.4">
+      <c r="A97" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B97" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="23" t="s">
+    <row r="100" spans="1:2" ht="14.4">
+      <c r="A100" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="23" t="s">
+    <row r="101" spans="1:2" ht="14.4">
+      <c r="A101" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="23" t="s">
+    <row r="102" spans="1:2" ht="14.4">
+      <c r="A102" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="23" t="s">
+    <row r="103" spans="1:2" ht="14.4">
+      <c r="A103" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="23" t="s">
+    <row r="104" spans="1:2" ht="14.4">
+      <c r="A104" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="23" t="s">
+    <row r="105" spans="1:2" ht="14.4">
+      <c r="A105" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="14.4">
       <c r="A106" s="8" t="s">
         <v>75</v>
       </c>
@@ -1867,7 +1957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="14.4">
       <c r="A107" s="8" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="14.4">
       <c r="A108" s="8" t="s">
         <v>74</v>
       </c>
@@ -1883,12 +1973,178 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" ht="14.4">
       <c r="A109" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14.4">
+      <c r="A112" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.4">
+      <c r="A113" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.4">
+      <c r="A114" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14.4">
+      <c r="A115" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14.4">
+      <c r="A116" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14.4">
+      <c r="A117" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.4">
+      <c r="A118" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.4">
+      <c r="A119" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14.4">
+      <c r="A120" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121" spans="1:2" ht="14.4">
+      <c r="A121" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14.4">
+      <c r="A122" s="36"/>
+      <c r="B122" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14.4">
+      <c r="A125" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14.4">
+      <c r="A126" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14.4">
+      <c r="A127" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14.4">
+      <c r="A128" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129" spans="1:2" ht="14.4">
+      <c r="A129" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14.4">
+      <c r="A130" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14.4">
+      <c r="A131" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14.4">
+      <c r="A132" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="14.4">
+      <c r="A133" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B133" s="8"/>
+    </row>
+    <row r="134" spans="1:2" ht="14.4">
+      <c r="A134" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="14.4">
+      <c r="A135" s="36"/>
+      <c r="B135" s="34" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1897,5 +2153,6 @@
     <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>